--- a/EndResult/100m Medley.xlsx
+++ b/EndResult/100m Medley.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -651,12 +651,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Albert Barrabino</t>
+          <t>Gabriel Rognes Steen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.00,70</t>
+          <t>1.00,69</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,12 +664,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.03.2012</t>
+          <t>28.09.2024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Drammen</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -686,12 +686,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gabriel Rognes Steen</t>
+          <t>Albert Barrabino</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.00,69</t>
+          <t>1.00,70</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -699,12 +699,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.09.2024</t>
+          <t>25.03.2012</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Drammen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1253,12 +1253,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Elise Lund</t>
+          <t>Karoline Volden</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.09,68</t>
+          <t>1.09,69</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27.05.2017</t>
+          <t>30.09.2017</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Husebybadet</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
